--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\OSM_Geocoding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\OSM_Geocoding\OSM_Geocoding\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D622109-CA0D-4B68-93B0-D6275D2957B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD263910-B08F-4EFC-A08A-6F8C251E8FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПС Большая Арешевка ТП 2-6_250" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Перечень обследуемых точек учёта с указанием их типа</t>
   </si>
@@ -69,9 +69,6 @@
     <t>№ дома</t>
   </si>
   <si>
-    <t>Строение</t>
-  </si>
-  <si>
     <t>№ опоры ВЛ- 0,4кВ</t>
   </si>
   <si>
@@ -130,33 +127,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
 </sst>
 </file>
@@ -247,13 +217,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +509,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F2" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -554,25 +526,24 @@
     <col min="7" max="7" width="19.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="21" style="5" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="5"/>
-    <col min="10" max="10" width="10.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="13.5703125" style="5"/>
+    <col min="10" max="10" width="9.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="13.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -584,37 +555,32 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="str">
-        <f>C5&amp;" "&amp;E5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -666,73 +632,70 @@
       <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12</v>
+      </c>
+      <c r="M4" s="4">
+        <v>13</v>
+      </c>
+      <c r="N4" s="4">
+        <v>14</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15</v>
+      </c>
+      <c r="P4" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>17</v>
+      </c>
+      <c r="R4" s="4">
+        <v>18</v>
       </c>
       <c r="S4" s="4">
         <v>19</v>
@@ -740,11 +703,8 @@
       <c r="T4" s="4">
         <v>20</v>
       </c>
-      <c r="U4" s="4">
-        <v>21</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -762,19 +722,18 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="4"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="I1:I5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:U2"/>
+    <mergeCell ref="J2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\OSM_Geocoding\OSM_Geocoding\bin\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\VisualStudio\Geocoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD263910-B08F-4EFC-A08A-6F8C251E8FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FDC984-8920-430F-88E3-565C48F89DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПС Большая Арешевка ТП 2-6_250" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F2" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,10 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="str">
+        <f>C5&amp;" "&amp;E5</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -733,7 +736,7 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="J2:T2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>